--- a/biology/Botanique/Jardin_botanique_de_Singapour/Jardin_botanique_de_Singapour.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Singapour/Jardin_botanique_de_Singapour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Jardin botanique de Singapour (en anglais : Singapore Botanic Gardens, chinois : 新加坡植物园 ; malais : Taman Botanik Singapura ou Kebun Botani Singapura) est un jardin botanique d'une superficie de 74 hectares de la ville de Singapour. En 2015, ce jardin botanique est inscrit au Patrimoine Mondial de l'Humanité par l'UNESCO et il reçoit quatre millions de visiteurs[1].
+Le Jardin botanique de Singapour (en anglais : Singapore Botanic Gardens, chinois : 新加坡植物园 ; malais : Taman Botanik Singapura ou Kebun Botani Singapura) est un jardin botanique d'une superficie de 74 hectares de la ville de Singapour. En 2015, ce jardin botanique est inscrit au Patrimoine Mondial de l'Humanité par l'UNESCO et il reçoit quatre millions de visiteurs.
 Sa superficie représente la moitié des Jardins botaniques royaux de Kew ou un cinquième de la superficie de Central Park à New York. C'est le seul jardin botanique au monde à ouvrir tous les jours de l'année entre 5 heures et minuit et entièrement gratuit, sauf pour le Jardin national des orchidées.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Singapour a été inauguré en 1859.
@@ -546,7 +560,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le jardin se divise en 6 parties :
 Jardin national des orchidées qui présente la plus grande collection d'orchidées de la planète : 1000 espèces et 2000 hybrides
@@ -582,7 +598,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Réplique de l'ancien Lepidodendrons ou du Lycopodiopsida géant au Jardin de l'Évolution.
